--- a/Fund list.xlsx
+++ b/Fund list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxie\Documents\Portfolio Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxie\Documents\GitHub\PortFolio-Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -990,7 +990,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -998,13 +998,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1019,8 +1033,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,11 +1317,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A365"/>
+  <dimension ref="A1:D365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1787,82 +1808,91 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>2500</v>
+      </c>
+      <c r="C102" s="1">
+        <v>42122</v>
+      </c>
+      <c r="D102">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -1947,82 +1977,101 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>2500</v>
+      </c>
+      <c r="C135" s="1">
+        <v>42121</v>
+      </c>
+      <c r="D135">
+        <v>58.44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>2500</v>
+      </c>
+      <c r="C137" s="1">
+        <v>42122</v>
+      </c>
+      <c r="D137">
+        <v>37.130000000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3134,5 +3183,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>